--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -638,27 +638,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22231-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22231-2019.xlsx", "A 22231-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22231-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22231-2019.png", "A 22231-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22231-2019.docx", "A 22231-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22231-2019.docx", "A 22231-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22231-2019.docx", "A 22231-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22231-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22231-2019.docx", "A 22231-2019")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,31 +736,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 7383-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 7383-2020.xlsx", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 7383-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 7383-2020.png", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/knärot/A 7383-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/knärot/A 7383-2020.png", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 7383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 7383-2020.docx", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 7383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 7383-2020.docx", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 7383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 7383-2020.docx", "A 7383-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 7383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 7383-2020.docx", "A 7383-2020")</f>
         <v/>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,27 +838,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 34901-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 34901-2022.xlsx", "A 34901-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 34901-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 34901-2022.png", "A 34901-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 34901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 34901-2022.docx", "A 34901-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 34901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 34901-2022.docx", "A 34901-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 34901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 34901-2022.docx", "A 34901-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 34901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 34901-2022.docx", "A 34901-2022")</f>
         <v/>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,27 +935,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19847-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19847-2021.xlsx", "A 19847-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19847-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19847-2021.png", "A 19847-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19847-2021.docx", "A 19847-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19847-2021.docx", "A 19847-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19847-2021.docx", "A 19847-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19847-2021.docx", "A 19847-2021")</f>
         <v/>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,27 +1030,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 6138-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 6138-2019.xlsx", "A 6138-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 6138-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 6138-2019.png", "A 6138-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 6138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 6138-2019.docx", "A 6138-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 6138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 6138-2019.docx", "A 6138-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 6138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 6138-2019.docx", "A 6138-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 6138-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 6138-2019.docx", "A 6138-2019")</f>
         <v/>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,27 +1125,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30281-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30281-2019.xlsx", "A 30281-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30281-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30281-2019.png", "A 30281-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30281-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30281-2019.docx", "A 30281-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30281-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30281-2019.docx", "A 30281-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30281-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30281-2019.docx", "A 30281-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30281-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30281-2019.docx", "A 30281-2019")</f>
         <v/>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,27 +1220,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62314-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62314-2019.xlsx", "A 62314-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62314-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62314-2019.png", "A 62314-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62314-2019.docx", "A 62314-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62314-2019.docx", "A 62314-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62314-2019.docx", "A 62314-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62314-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62314-2019.docx", "A 62314-2019")</f>
         <v/>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1315,27 +1315,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62103-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62103-2022.xlsx", "A 62103-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62103-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62103-2022.png", "A 62103-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62103-2022.docx", "A 62103-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62103-2022.docx", "A 62103-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62103-2022.docx", "A 62103-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62103-2022.docx", "A 62103-2022")</f>
         <v/>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,27 +1409,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1118-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1118-2019.xlsx", "A 1118-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1118-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1118-2019.png", "A 1118-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1118-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1118-2019.docx", "A 1118-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1118-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1118-2019.docx", "A 1118-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1118-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1118-2019.docx", "A 1118-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1118-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1118-2019.docx", "A 1118-2019")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,27 +1503,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19473-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19473-2021.xlsx", "A 19473-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19473-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19473-2021.png", "A 19473-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19473-2021.docx", "A 19473-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19473-2021.docx", "A 19473-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19473-2021.docx", "A 19473-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19473-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19473-2021.docx", "A 19473-2021")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,27 +1597,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12291-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12291-2022.xlsx", "A 12291-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12291-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12291-2022.png", "A 12291-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12291-2022.docx", "A 12291-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12291-2022.docx", "A 12291-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12291-2022.docx", "A 12291-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12291-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12291-2022.docx", "A 12291-2022")</f>
         <v/>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,27 +1690,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62204-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62204-2019.xlsx", "A 62204-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62204-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62204-2019.png", "A 62204-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62204-2019.docx", "A 62204-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62204-2019.docx", "A 62204-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62204-2019.docx", "A 62204-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62204-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62204-2019.docx", "A 62204-2019")</f>
         <v/>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,27 +1783,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22001-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22001-2020.xlsx", "A 22001-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22001-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22001-2020.png", "A 22001-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22001-2020.docx", "A 22001-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22001-2020.docx", "A 22001-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22001-2020.docx", "A 22001-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22001-2020.docx", "A 22001-2020")</f>
         <v/>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,27 +1875,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1117-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1117-2019.xlsx", "A 1117-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1117-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1117-2019.png", "A 1117-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1117-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1117-2019.docx", "A 1117-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1117-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1117-2019.docx", "A 1117-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1117-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1117-2019.docx", "A 1117-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1117-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1117-2019.docx", "A 1117-2019")</f>
         <v/>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,31 +1972,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 41607-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 41607-2020.xlsx", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 41607-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 41607-2020.png", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/knärot/A 41607-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/knärot/A 41607-2020.png", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 41607-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 41607-2020.docx", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 41607-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 41607-2020.docx", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 41607-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 41607-2020.docx", "A 41607-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 41607-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 41607-2020.docx", "A 41607-2020")</f>
         <v/>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2068,27 +2068,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11549-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11549-2022.xlsx", "A 11549-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11549-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11549-2022.png", "A 11549-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11549-2022.docx", "A 11549-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11549-2022.docx", "A 11549-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11549-2022.docx", "A 11549-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11549-2022.docx", "A 11549-2022")</f>
         <v/>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2159,27 +2159,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 55850-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 55850-2018.xlsx", "A 55850-2018")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 55850-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 55850-2018.png", "A 55850-2018")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 55850-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 55850-2018.docx", "A 55850-2018")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 55850-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 55850-2018.docx", "A 55850-2018")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 55850-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 55850-2018.docx", "A 55850-2018")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 55850-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 55850-2018.docx", "A 55850-2018")</f>
         <v/>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2250,27 +2250,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30548-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30548-2019.xlsx", "A 30548-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30548-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30548-2019.png", "A 30548-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30548-2019.docx", "A 30548-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30548-2019.docx", "A 30548-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30548-2019.docx", "A 30548-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30548-2019.docx", "A 30548-2019")</f>
         <v/>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,27 +2341,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 6359-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 6359-2021.xlsx", "A 6359-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 6359-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 6359-2021.png", "A 6359-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 6359-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 6359-2021.docx", "A 6359-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 6359-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 6359-2021.docx", "A 6359-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 6359-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 6359-2021.docx", "A 6359-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 6359-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 6359-2021.docx", "A 6359-2021")</f>
         <v/>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2432,27 +2432,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 67302-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 67302-2021.xlsx", "A 67302-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 67302-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 67302-2021.png", "A 67302-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 67302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 67302-2021.docx", "A 67302-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 67302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 67302-2021.docx", "A 67302-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 67302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 67302-2021.docx", "A 67302-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 67302-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 67302-2021.docx", "A 67302-2021")</f>
         <v/>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,27 +2522,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62318-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62318-2019.xlsx", "A 62318-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62318-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62318-2019.png", "A 62318-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62318-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62318-2019.docx", "A 62318-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62318-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62318-2019.docx", "A 62318-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62318-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62318-2019.docx", "A 62318-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62318-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62318-2019.docx", "A 62318-2019")</f>
         <v/>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,27 +2611,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22238-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 22238-2019.xlsx", "A 22238-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22238-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 22238-2019.png", "A 22238-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 22238-2019.docx", "A 22238-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 22238-2019.docx", "A 22238-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 22238-2019.docx", "A 22238-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 22238-2019.docx", "A 22238-2019")</f>
         <v/>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2700,27 +2700,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4956-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4956-2020.xlsx", "A 4956-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4956-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4956-2020.png", "A 4956-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4956-2020.docx", "A 4956-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4956-2020.docx", "A 4956-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4956-2020.docx", "A 4956-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4956-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4956-2020.docx", "A 4956-2020")</f>
         <v/>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,27 +2789,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 63734-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 63734-2020.xlsx", "A 63734-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 63734-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 63734-2020.png", "A 63734-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 63734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 63734-2020.docx", "A 63734-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 63734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 63734-2020.docx", "A 63734-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 63734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 63734-2020.docx", "A 63734-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 63734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 63734-2020.docx", "A 63734-2020")</f>
         <v/>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2878,27 +2878,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 28070-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 28070-2023.xlsx", "A 28070-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 28070-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 28070-2023.png", "A 28070-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 28070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 28070-2023.docx", "A 28070-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 28070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 28070-2023.docx", "A 28070-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 28070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 28070-2023.docx", "A 28070-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 28070-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 28070-2023.docx", "A 28070-2023")</f>
         <v/>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2971,27 +2971,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1031-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1031-2019.xlsx", "A 1031-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1031-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1031-2019.png", "A 1031-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1031-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1031-2019.docx", "A 1031-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1031-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1031-2019.docx", "A 1031-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1031-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1031-2019.docx", "A 1031-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1031-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1031-2019.docx", "A 1031-2019")</f>
         <v/>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3064,27 +3064,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 8393-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 8393-2019.xlsx", "A 8393-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 8393-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 8393-2019.png", "A 8393-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 8393-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 8393-2019.docx", "A 8393-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 8393-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 8393-2019.docx", "A 8393-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 8393-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 8393-2019.docx", "A 8393-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 8393-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 8393-2019.docx", "A 8393-2019")</f>
         <v/>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,27 +3157,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 8394-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 8394-2019.xlsx", "A 8394-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 8394-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 8394-2019.png", "A 8394-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 8394-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 8394-2019.docx", "A 8394-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 8394-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 8394-2019.docx", "A 8394-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 8394-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 8394-2019.docx", "A 8394-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 8394-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 8394-2019.docx", "A 8394-2019")</f>
         <v/>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,27 +3245,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62321-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62321-2019.xlsx", "A 62321-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62321-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62321-2019.png", "A 62321-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62321-2019.docx", "A 62321-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62321-2019.docx", "A 62321-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62321-2019.docx", "A 62321-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62321-2019.docx", "A 62321-2019")</f>
         <v/>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3333,27 +3333,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30133-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 30133-2021.xlsx", "A 30133-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30133-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 30133-2021.png", "A 30133-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30133-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 30133-2021.docx", "A 30133-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30133-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 30133-2021.docx", "A 30133-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30133-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 30133-2021.docx", "A 30133-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30133-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 30133-2021.docx", "A 30133-2021")</f>
         <v/>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3421,27 +3421,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 16885-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 16885-2022.xlsx", "A 16885-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 16885-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 16885-2022.png", "A 16885-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 16885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 16885-2022.docx", "A 16885-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 16885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 16885-2022.docx", "A 16885-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 16885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 16885-2022.docx", "A 16885-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 16885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 16885-2022.docx", "A 16885-2022")</f>
         <v/>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,27 +3508,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 9781-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 9781-2019.xlsx", "A 9781-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 9781-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 9781-2019.png", "A 9781-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 9781-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 9781-2019.docx", "A 9781-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 9781-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 9781-2019.docx", "A 9781-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 9781-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 9781-2019.docx", "A 9781-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 9781-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 9781-2019.docx", "A 9781-2019")</f>
         <v/>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3595,27 +3595,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 23141-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 23141-2019.xlsx", "A 23141-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 23141-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 23141-2019.png", "A 23141-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 23141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 23141-2019.docx", "A 23141-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 23141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 23141-2019.docx", "A 23141-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 23141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 23141-2019.docx", "A 23141-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 23141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 23141-2019.docx", "A 23141-2019")</f>
         <v/>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3682,27 +3682,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4969-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4969-2020.xlsx", "A 4969-2020")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4969-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4969-2020.png", "A 4969-2020")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4969-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4969-2020.docx", "A 4969-2020")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4969-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4969-2020.docx", "A 4969-2020")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4969-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4969-2020.docx", "A 4969-2020")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4969-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4969-2020.docx", "A 4969-2020")</f>
         <v/>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3774,27 +3774,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 61997-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 61997-2021.xlsx", "A 61997-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 61997-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 61997-2021.png", "A 61997-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 61997-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 61997-2021.docx", "A 61997-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 61997-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 61997-2021.docx", "A 61997-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 61997-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 61997-2021.docx", "A 61997-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 61997-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 61997-2021.docx", "A 61997-2021")</f>
         <v/>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,27 +3866,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 27462-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 27462-2022.xlsx", "A 27462-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 27462-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 27462-2022.png", "A 27462-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 27462-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 27462-2022.docx", "A 27462-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 27462-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 27462-2022.docx", "A 27462-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 27462-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 27462-2022.docx", "A 27462-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 27462-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 27462-2022.docx", "A 27462-2022")</f>
         <v/>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3953,27 +3953,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 34878-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 34878-2022.xlsx", "A 34878-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 34878-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 34878-2022.png", "A 34878-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 34878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 34878-2022.docx", "A 34878-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 34878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 34878-2022.docx", "A 34878-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 34878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 34878-2022.docx", "A 34878-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 34878-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 34878-2022.docx", "A 34878-2022")</f>
         <v/>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4044,27 +4044,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 38542-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 38542-2018.xlsx", "A 38542-2018")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 38542-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 38542-2018.png", "A 38542-2018")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 38542-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 38542-2018.docx", "A 38542-2018")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 38542-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 38542-2018.docx", "A 38542-2018")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 38542-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 38542-2018.docx", "A 38542-2018")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 38542-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 38542-2018.docx", "A 38542-2018")</f>
         <v/>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4130,27 +4130,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1114-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 1114-2019.xlsx", "A 1114-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1114-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 1114-2019.png", "A 1114-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 1114-2019.docx", "A 1114-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 1114-2019.docx", "A 1114-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 1114-2019.docx", "A 1114-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 1114-2019.docx", "A 1114-2019")</f>
         <v/>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4216,27 +4216,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 20918-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 20918-2021.xlsx", "A 20918-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 20918-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 20918-2021.png", "A 20918-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 20918-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 20918-2021.docx", "A 20918-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 20918-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 20918-2021.docx", "A 20918-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 20918-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 20918-2021.docx", "A 20918-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 20918-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 20918-2021.docx", "A 20918-2021")</f>
         <v/>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4307,27 +4307,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11710-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11710-2022.xlsx", "A 11710-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11710-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11710-2022.png", "A 11710-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11710-2022.docx", "A 11710-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11710-2022.docx", "A 11710-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11710-2022.docx", "A 11710-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11710-2022.docx", "A 11710-2022")</f>
         <v/>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4393,27 +4393,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12636-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12636-2022.xlsx", "A 12636-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12636-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12636-2022.png", "A 12636-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12636-2022.docx", "A 12636-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12636-2022.docx", "A 12636-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12636-2022.docx", "A 12636-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12636-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12636-2022.docx", "A 12636-2022")</f>
         <v/>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4484,27 +4484,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 27212-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 27212-2022.xlsx", "A 27212-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 27212-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 27212-2022.png", "A 27212-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 27212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 27212-2022.docx", "A 27212-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 27212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 27212-2022.docx", "A 27212-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 27212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 27212-2022.docx", "A 27212-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 27212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 27212-2022.docx", "A 27212-2022")</f>
         <v/>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4575,27 +4575,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 55664-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 55664-2022.xlsx", "A 55664-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 55664-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 55664-2022.png", "A 55664-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 55664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 55664-2022.docx", "A 55664-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 55664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 55664-2022.docx", "A 55664-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 55664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 55664-2022.docx", "A 55664-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 55664-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 55664-2022.docx", "A 55664-2022")</f>
         <v/>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4666,27 +4666,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 35329-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 35329-2023.xlsx", "A 35329-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 35329-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 35329-2023.png", "A 35329-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 35329-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 35329-2023.docx", "A 35329-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 35329-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 35329-2023.docx", "A 35329-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 35329-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 35329-2023.docx", "A 35329-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 35329-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 35329-2023.docx", "A 35329-2023")</f>
         <v/>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4751,27 +4751,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 47561-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 47561-2018.xlsx", "A 47561-2018")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 47561-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 47561-2018.png", "A 47561-2018")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 47561-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 47561-2018.docx", "A 47561-2018")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 47561-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 47561-2018.docx", "A 47561-2018")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 47561-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 47561-2018.docx", "A 47561-2018")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 47561-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 47561-2018.docx", "A 47561-2018")</f>
         <v/>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4836,27 +4836,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 49606-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 49606-2018.xlsx", "A 49606-2018")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 49606-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 49606-2018.png", "A 49606-2018")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 49606-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 49606-2018.docx", "A 49606-2018")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 49606-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 49606-2018.docx", "A 49606-2018")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 49606-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 49606-2018.docx", "A 49606-2018")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 49606-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 49606-2018.docx", "A 49606-2018")</f>
         <v/>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4921,27 +4921,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4399-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 4399-2019.xlsx", "A 4399-2019")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4399-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 4399-2019.png", "A 4399-2019")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 4399-2019.docx", "A 4399-2019")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 4399-2019.docx", "A 4399-2019")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 4399-2019.docx", "A 4399-2019")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4399-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 4399-2019.docx", "A 4399-2019")</f>
         <v/>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5006,27 +5006,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 9115-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 9115-2019.xlsx", "A 9115-2019")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 9115-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 9115-2019.png", "A 9115-2019")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 9115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 9115-2019.docx", "A 9115-2019")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 9115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 9115-2019.docx", "A 9115-2019")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 9115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 9115-2019.docx", "A 9115-2019")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 9115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 9115-2019.docx", "A 9115-2019")</f>
         <v/>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5091,27 +5091,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 16034-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 16034-2019.xlsx", "A 16034-2019")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 16034-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 16034-2019.png", "A 16034-2019")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 16034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 16034-2019.docx", "A 16034-2019")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 16034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 16034-2019.docx", "A 16034-2019")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 16034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 16034-2019.docx", "A 16034-2019")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 16034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 16034-2019.docx", "A 16034-2019")</f>
         <v/>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5176,27 +5176,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 39475-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 39475-2019.xlsx", "A 39475-2019")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 39475-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 39475-2019.png", "A 39475-2019")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 39475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 39475-2019.docx", "A 39475-2019")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 39475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 39475-2019.docx", "A 39475-2019")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 39475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 39475-2019.docx", "A 39475-2019")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 39475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 39475-2019.docx", "A 39475-2019")</f>
         <v/>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5261,27 +5261,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62206-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 62206-2019.xlsx", "A 62206-2019")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62206-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 62206-2019.png", "A 62206-2019")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 62206-2019.docx", "A 62206-2019")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 62206-2019.docx", "A 62206-2019")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 62206-2019.docx", "A 62206-2019")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 62206-2019.docx", "A 62206-2019")</f>
         <v/>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5346,27 +5346,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12761-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 12761-2020.xlsx", "A 12761-2020")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12761-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 12761-2020.png", "A 12761-2020")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 12761-2020.docx", "A 12761-2020")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 12761-2020.docx", "A 12761-2020")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 12761-2020.docx", "A 12761-2020")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 12761-2020.docx", "A 12761-2020")</f>
         <v/>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5431,27 +5431,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19759-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 19759-2020.xlsx", "A 19759-2020")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19759-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 19759-2020.png", "A 19759-2020")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 19759-2020.docx", "A 19759-2020")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 19759-2020.docx", "A 19759-2020")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 19759-2020.docx", "A 19759-2020")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19759-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 19759-2020.docx", "A 19759-2020")</f>
         <v/>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5521,27 +5521,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 25590-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 25590-2020.xlsx", "A 25590-2020")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 25590-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 25590-2020.png", "A 25590-2020")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 25590-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 25590-2020.docx", "A 25590-2020")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 25590-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 25590-2020.docx", "A 25590-2020")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 25590-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 25590-2020.docx", "A 25590-2020")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 25590-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 25590-2020.docx", "A 25590-2020")</f>
         <v/>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5611,27 +5611,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 26557-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 26557-2020.xlsx", "A 26557-2020")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 26557-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 26557-2020.png", "A 26557-2020")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 26557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 26557-2020.docx", "A 26557-2020")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 26557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 26557-2020.docx", "A 26557-2020")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 26557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 26557-2020.docx", "A 26557-2020")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 26557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 26557-2020.docx", "A 26557-2020")</f>
         <v/>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5696,27 +5696,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 20921-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 20921-2021.xlsx", "A 20921-2021")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 20921-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 20921-2021.png", "A 20921-2021")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 20921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 20921-2021.docx", "A 20921-2021")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 20921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 20921-2021.docx", "A 20921-2021")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 20921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 20921-2021.docx", "A 20921-2021")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 20921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 20921-2021.docx", "A 20921-2021")</f>
         <v/>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5781,27 +5781,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 42981-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 42981-2021.xlsx", "A 42981-2021")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 42981-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 42981-2021.png", "A 42981-2021")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 42981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 42981-2021.docx", "A 42981-2021")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 42981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 42981-2021.docx", "A 42981-2021")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 42981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 42981-2021.docx", "A 42981-2021")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 42981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 42981-2021.docx", "A 42981-2021")</f>
         <v/>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5866,27 +5866,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 52669-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 52669-2021.xlsx", "A 52669-2021")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 52669-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 52669-2021.png", "A 52669-2021")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 52669-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 52669-2021.docx", "A 52669-2021")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 52669-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 52669-2021.docx", "A 52669-2021")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 52669-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 52669-2021.docx", "A 52669-2021")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 52669-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 52669-2021.docx", "A 52669-2021")</f>
         <v/>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5951,27 +5951,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11560-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 11560-2022.xlsx", "A 11560-2022")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11560-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 11560-2022.png", "A 11560-2022")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11560-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 11560-2022.docx", "A 11560-2022")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11560-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 11560-2022.docx", "A 11560-2022")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11560-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 11560-2022.docx", "A 11560-2022")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11560-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 11560-2022.docx", "A 11560-2022")</f>
         <v/>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6041,27 +6041,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 23476-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 23476-2022.xlsx", "A 23476-2022")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 23476-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 23476-2022.png", "A 23476-2022")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 23476-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 23476-2022.docx", "A 23476-2022")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 23476-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 23476-2022.docx", "A 23476-2022")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 23476-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 23476-2022.docx", "A 23476-2022")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 23476-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 23476-2022.docx", "A 23476-2022")</f>
         <v/>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6126,27 +6126,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 33859-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 33859-2022.xlsx", "A 33859-2022")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 33859-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 33859-2022.png", "A 33859-2022")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 33859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 33859-2022.docx", "A 33859-2022")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 33859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 33859-2022.docx", "A 33859-2022")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 33859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 33859-2022.docx", "A 33859-2022")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 33859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 33859-2022.docx", "A 33859-2022")</f>
         <v/>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6211,27 +6211,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 58837-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/artfynd/A 58837-2022.xlsx", "A 58837-2022")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 58837-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/kartor/A 58837-2022.png", "A 58837-2022")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 58837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomål/A 58837-2022.docx", "A 58837-2022")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 58837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/klagomålsmail/A 58837-2022.docx", "A 58837-2022")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 58837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsyn/A 58837-2022.docx", "A 58837-2022")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 58837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALUNG-SALEN/tillsynsmail/A 58837-2022.docx", "A 58837-2022")</f>
         <v/>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y610"/>
+  <dimension ref="A1:Y612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="R609" s="2" t="inlineStr"/>
     </row>
-    <row r="610">
+    <row r="610" ht="15" customHeight="1">
       <c r="A610" t="inlineStr">
         <is>
           <t>A 37872-2023</t>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38321,6 +38321,120 @@
         <v>0</v>
       </c>
       <c r="R610" s="2" t="inlineStr"/>
+    </row>
+    <row r="611" ht="15" customHeight="1">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>A 44709-2023</t>
+        </is>
+      </c>
+      <c r="B611" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C611" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="G611" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>0</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N611" t="n">
+        <v>0</v>
+      </c>
+      <c r="O611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" s="2" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>A 45197-2023</t>
+        </is>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C612" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="G612" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" t="n">
+        <v>0</v>
+      </c>
+      <c r="O612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y612"/>
+  <dimension ref="A1:Y615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45190</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="R611" s="2" t="inlineStr"/>
     </row>
-    <row r="612">
+    <row r="612" ht="15" customHeight="1">
       <c r="A612" t="inlineStr">
         <is>
           <t>A 45197-2023</t>
@@ -38389,7 +38389,7 @@
         <v>45191</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38435,6 +38435,192 @@
         <v>0</v>
       </c>
       <c r="R612" s="2" t="inlineStr"/>
+    </row>
+    <row r="613" ht="15" customHeight="1">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>A 46624-2023</t>
+        </is>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C613" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>11</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" t="n">
+        <v>0</v>
+      </c>
+      <c r="O613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" s="2" t="inlineStr"/>
+    </row>
+    <row r="614" ht="15" customHeight="1">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>A 46702-2023</t>
+        </is>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" t="n">
+        <v>0</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" s="2" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>A 46631-2023</t>
+        </is>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>0</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43959</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>43472</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>44070</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44631</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43398</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>43635</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44232</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>44523</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43585</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43859</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>44166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45099</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>43502</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43502</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43788</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43591</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43859</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44501</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44742</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44796</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>43339</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43472</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44319</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44634</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43370</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43376</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>43484</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>43504</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43543</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43691</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43788</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43899</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>43942</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43983</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>43987</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44319</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44464</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>44631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44721</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44790</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>44903</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43318</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>43325</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43327</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43332</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43346</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43349</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43369</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43381</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43388</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43389</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43389</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43392</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43402</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43404</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43409</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43409</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>43409</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>43412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>43416</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>43417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>43417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43424</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>43424</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43425</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43425</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43425</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43426</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43427</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43427</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43431</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43431</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>43431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43431</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43437</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43438</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43440</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43443</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>43448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43448</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43448</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43448</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43448</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>43448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43448</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43448</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43451</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43454</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43455</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43472</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43472</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43473</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>43484</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>43484</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43486</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43489</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>43489</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>43489</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43489</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>43489</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>43489</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>43489</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>43489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43504</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>43518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>43518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>43522</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>43522</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43523</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>43523</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43523</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>43528</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>43529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>43537</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43538</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>43543</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>43549</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>43549</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43558</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43563</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43565</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43565</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>43587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43590</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43595</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43609</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>43610</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>43610</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>43619</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>43623</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>43631</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>43631</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>43633</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>43634</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>43634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>43636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>43643</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>43647</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>43651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>43654</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>43654</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>43656</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>43657</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>43658</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>43675</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>43675</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43677</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43683</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43684</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43686</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>43686</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>43690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>43700</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>43703</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>43717</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>43717</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>43720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>43720</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>43726</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43733</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43734</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>43735</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>43735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>43735</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43739</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43739</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>43747</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43749</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43763</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>43767</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>43782</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>43782</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16391,7 +16391,7 @@
         <v>43783</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>43788</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>43812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>43819</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>43837</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>43839</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>43859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>43878</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>43878</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>43886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43894</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43906</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>43907</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>43907</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43909</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43923</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43927</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43928</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43930</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43938</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43943</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43970</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43979</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43986</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43986</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43986</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43990</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43990</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43990</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43990</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43990</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43997</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43998</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43999</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>43999</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44005</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
         <v>44007</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18850,7 +18850,7 @@
         <v>44012</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>44012</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44020</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>44021</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44021</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>44043</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44049</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44056</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>44056</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44057</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44061</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44068</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44068</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44071</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44078</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44084</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44090</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44090</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44090</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44096</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>44097</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44110</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44110</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44131</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44131</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44137</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44137</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44137</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44144</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44144</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44146</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44149</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44165</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21272,7 +21272,7 @@
         <v>44166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21329,7 +21329,7 @@
         <v>44166</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21386,7 +21386,7 @@
         <v>44166</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44182</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44183</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44194</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44200</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44201</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44203</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>44208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44210</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44211</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44214</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44217</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44224</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44229</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44235</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44242</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44267</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44299</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44300</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44306</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44312</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44315</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44321</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44321</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44321</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44325</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44326</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44332</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44332</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44333</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>44342</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>44347</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>44350</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44351</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         <v>44351</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44355</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44356</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44363</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44363</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44363</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44364</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44371</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44375</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44375</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44379</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44385</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44405</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44405</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44405</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44419</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>44424</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44424</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44426</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44433</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44435</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44438</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44438</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44439</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>44442</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>44445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44445</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>44445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>44455</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44460</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44462</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25932,7 +25932,7 @@
         <v>44462</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25989,7 +25989,7 @@
         <v>44462</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44469</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44473</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44475</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44477</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>44495</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44501</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44501</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>44501</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44501</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44501</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44501</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44503</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>44508</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44511</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44512</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44512</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44512</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44515</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>44515</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44515</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44515</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44516</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27427,7 +27427,7 @@
         <v>44526</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44529</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44531</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>44537</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>44540</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44540</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>44550</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>44552</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44589</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44599</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44603</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44613</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44616</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44616</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44637</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44641</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44671</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>44676</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>44686</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>44687</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>44691</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>44692</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>44692</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28788,7 +28788,7 @@
         <v>44696</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>44711</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44721</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44721</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>44725</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>44725</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>44725</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>44725</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44725</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44725</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44735</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44739</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44739</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44740</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44743</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>44749</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>44756</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44756</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44782</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44789</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44795</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44802</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30293,7 +30293,7 @@
         <v>44809</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44810</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>44811</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30469,7 +30469,7 @@
         <v>44811</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>44811</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44811</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44817</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44819</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44826</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44832</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>44833</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44834</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>44837</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44839</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>44839</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31203,7 +31203,7 @@
         <v>44840</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>44840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>44841</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>44841</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31441,7 +31441,7 @@
         <v>44847</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>44851</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>44852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>44853</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>44853</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>44855</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44858</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44859</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>44860</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>44862</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>44862</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44862</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44862</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>44862</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>44865</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44867</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>44867</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>44881</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44881</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>44887</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>44888</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44893</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>44897</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32839,7 +32839,7 @@
         <v>44897</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32896,7 +32896,7 @@
         <v>44900</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>44900</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>44903</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>44903</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>44907</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>44907</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>44908</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44908</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44923</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44923</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44923</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44923</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44923</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44928</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44936</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44937</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44938</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44938</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44946</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44946</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44950</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44950</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44957</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>44963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>44963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34450,7 +34450,7 @@
         <v>44970</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>44978</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>44979</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>44981</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45007</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45015</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45015</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45016</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45019</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45020</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45020</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35144,7 +35144,7 @@
         <v>45036</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45036</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45041</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45041</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45053</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45053</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45054</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>45054</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45054</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45056</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45057</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45061</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45063</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45068</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36081,7 +36081,7 @@
         <v>45068</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         <v>45071</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36200,7 +36200,7 @@
         <v>45071</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45072</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45072</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36376,7 +36376,7 @@
         <v>45072</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45072</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45072</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45072</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45076</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45077</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36795,7 +36795,7 @@
         <v>45078</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>45079</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>45079</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36976,7 +36976,7 @@
         <v>45084</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37033,7 +37033,7 @@
         <v>45084</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37095,7 +37095,7 @@
         <v>45086</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45089</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45089</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37276,7 +37276,7 @@
         <v>45089</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45089</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>45090</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>45096</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>45096</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37566,7 +37566,7 @@
         <v>45097</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37628,7 +37628,7 @@
         <v>45097</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>45097</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         <v>45097</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>45104</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37861,7 +37861,7 @@
         <v>45106</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
         <v>45112</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>45112</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>45114</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38094,7 +38094,7 @@
         <v>45118</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38151,7 +38151,7 @@
         <v>45149</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38213,7 +38213,7 @@
         <v>45152</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45190</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45191</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>45198</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>45198</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>45198</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43585</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>43868</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>43486</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>43633</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43788</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1349,7 +1349,7 @@
         <v>43472</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44311</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44637</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43788</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineSt